--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,406 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Этаж под ключ на 4-5-6-7 человек
+</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+7 500 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Уютная квартирка на берегу Чёрного моря
+</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+8 500 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Северная 10LUX
+</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+11 511 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+City Centre VIP13
+</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+8 500 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Marina Park Black Sea
+</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+16 200 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Виноградная 22 Vip
+</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+7 225 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Апартаменты Кэт
+</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+5 500 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Квартира в ЖК Посейдон
+</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+4 455 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сочи Земляничная д26 к33 Номер 1
+</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+4 320 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сочи Земляничная д26 к33 Номер 2
+</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2 160 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Квартира в ЖК Романовский
+</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3 240 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sochi VIP Apartments Y9
+</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+12 032 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+City Centre LUX 2K
+</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+6 660 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Квартира с прекрасным видом на море и весь Сочи
+</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+5 000 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Апартаменты Возрождение
+</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+5 000 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+дом
+</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2 500 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Студия в центральном районе Сочи Восемь Пр
+</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3 530 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Квартира по суточно
+</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3 500 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Квартира, жк Жемчужина , р-он Светлана
+</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+4 050 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+City Centre rooms
+</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+4 840 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+City Centre VIP (Виноградная)
+</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+5 600 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+City Centre Rooms Z3/8
+</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+5 610 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Guest House Svetlana
+</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+3 150 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Снова дома VIP
+</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+5 098 руб.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sochi Apartments VIP 1к
+</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+4 984 руб.
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
